--- a/doc/add-contributing-guide/ig/StructureDefinition-fr-core-observation-resp-rate.xlsx
+++ b/doc/add-contributing-guide/ig/StructureDefinition-fr-core-observation-resp-rate.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T12:33:29+00:00</t>
+    <t>2025-10-22T07:20:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
